--- a/biology/Botanique/Tetrapleura_tetraptera/Tetrapleura_tetraptera.xlsx
+++ b/biology/Botanique/Tetrapleura_tetraptera/Tetrapleura_tetraptera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tetrapleura tetraptera (Schum. &amp; Thonn.) Taub., aussi appelé Aidan tree en anglais, sassas chez les Bassa, djetk ou essissa (ou Esesè) chez les Ewondo au Cameroun, est un arbre pérenne des régions forestières d'Afrique tropicale, de la famille des Mimosaceae.
 De par sa forme, le fruit est communément nommé quatre côtés.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre peut atteindre 25 mètres de haut avec une cime ouverte et un fût court. Les folioles sont vert foncé. Les fleurs, en épis étroits, sont de couleur crème ou rose tendant vers l'orange. Ses feuilles d'environ 30 cm de longueur ont 6-8 paires de pinnules opposées. Ses fruits sont des gousses de couleur pourpre à brun foncé, composées de quatre côtes saillantes pouvant atteindre 20 cm de long et 5 cm de large. Ses graines sont ovales, plates et noires[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre peut atteindre 25 mètres de haut avec une cime ouverte et un fût court. Les folioles sont vert foncé. Les fleurs, en épis étroits, sont de couleur crème ou rose tendant vers l'orange. Ses feuilles d'environ 30 cm de longueur ont 6-8 paires de pinnules opposées. Ses fruits sont des gousses de couleur pourpre à brun foncé, composées de quatre côtes saillantes pouvant atteindre 20 cm de long et 5 cm de large. Ses graines sont ovales, plates et noires,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dissémination de ses graines est facilitée par les éléphants, celles-ci étant capables de germer dans les excréments d'éléphant[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dissémination de ses graines est facilitée par les éléphants, celles-ci étant capables de germer dans les excréments d'éléphant.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son aire de répartition s'étend du Sénégal à la Tanzanie vers l'Est et à l'Angola et Zimbabwe vers le Sud en passant par le Cameroun et le Gabon[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire de répartition s'étend du Sénégal à la Tanzanie vers l'Est et à l'Angola et Zimbabwe vers le Sud en passant par le Cameroun et le Gabon.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le rencontre dans la forêt, la jachère rocheuse, la savane[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le rencontre dans la forêt, la jachère rocheuse, la savane.
 </t>
         </is>
       </c>
@@ -636,11 +656,13 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Communément nommé quatre côtés de par sa forme caractéristique, le fruit est utilisé comme épice pour plusieurs sauces notamment la sauce jaune chez les Bamiléké ou le bongo'o chez les Bassa au Cameroun[8]. Au Ghana, Tetrapleura tetraptera est utilisé comme thé ou dans la fabrication des bonbons[4], car la pulpe est sucrée et aromatisée[7].
-Le bois est dur, dense, mais moyennement résistant. On s'en sert pour la petite menuiserie, la fabrication d'outils, également pour le chauffage[7].
-Toutes les parties de la plante connaissent de très nombreuses utilisations en médecine traditionnelle en Afrique[9], mais les fruits, réputés anti-arthritiques, anti-inflammatoires et anti-diabétiques, sont les plus employés, pour traiter des affections aussi variées que : troubles cardiovasculaires ou digestifs, hypertension épilepsie, convulsions, fièvres, insuffisance immunitaire, problèmes dentaires[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Communément nommé quatre côtés de par sa forme caractéristique, le fruit est utilisé comme épice pour plusieurs sauces notamment la sauce jaune chez les Bamiléké ou le bongo'o chez les Bassa au Cameroun. Au Ghana, Tetrapleura tetraptera est utilisé comme thé ou dans la fabrication des bonbons, car la pulpe est sucrée et aromatisée.
+Le bois est dur, dense, mais moyennement résistant. On s'en sert pour la petite menuiserie, la fabrication d'outils, également pour le chauffage.
+Toutes les parties de la plante connaissent de très nombreuses utilisations en médecine traditionnelle en Afrique, mais les fruits, réputés anti-arthritiques, anti-inflammatoires et anti-diabétiques, sont les plus employés, pour traiter des affections aussi variées que : troubles cardiovasculaires ou digestifs, hypertension épilepsie, convulsions, fièvres, insuffisance immunitaire, problèmes dentaires.
 </t>
         </is>
       </c>
